--- a/results/comparaison/statistical_test.xlsx
+++ b/results/comparaison/statistical_test.xlsx
@@ -489,28 +489,28 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>4198</v>
+        <v>5322</v>
       </c>
       <c r="E2">
-        <v>0.02721285281939196</v>
+        <v>0.003157193844051598</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>104.8346687446785</v>
+        <v>103.4876877596503</v>
       </c>
       <c r="I2">
-        <v>36.10402474584229</v>
+        <v>23.66491782001678</v>
       </c>
       <c r="J2">
-        <v>92.28345139292882</v>
+        <v>89.35365320967293</v>
       </c>
       <c r="K2">
-        <v>42.36174008292326</v>
+        <v>34.75062229658199</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -520,28 +520,28 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>2450</v>
+        <v>3612.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>104.8346687446785</v>
+        <v>103.4876877596503</v>
       </c>
       <c r="I3">
-        <v>36.10402474584229</v>
+        <v>23.66491782001678</v>
       </c>
       <c r="J3">
-        <v>104.8346687446785</v>
+        <v>103.4876877596503</v>
       </c>
       <c r="K3">
-        <v>36.10402474584229</v>
+        <v>23.66491782001678</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,28 +551,28 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>2381</v>
+        <v>3801</v>
       </c>
       <c r="E4">
-        <v>0.5314220299469443</v>
+        <v>0.752417154920855</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H4">
-        <v>104.8346687446785</v>
+        <v>103.4876877596503</v>
       </c>
       <c r="I4">
-        <v>36.10402474584229</v>
+        <v>23.66491782001678</v>
       </c>
       <c r="J4">
-        <v>105.0249834780794</v>
+        <v>103.1286152396258</v>
       </c>
       <c r="K4">
-        <v>32.79286976589608</v>
+        <v>21.30780407368493</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +582,28 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>1842</v>
+        <v>3083</v>
       </c>
       <c r="E5">
-        <v>0.1023577146150202</v>
+        <v>0.07746869593154533</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>104.8346687446785</v>
+        <v>103.4876877596503</v>
       </c>
       <c r="I5">
-        <v>36.10402474584229</v>
+        <v>23.66491782001678</v>
       </c>
       <c r="J5">
-        <v>112.6927961619445</v>
+        <v>109.2750421904078</v>
       </c>
       <c r="K5">
-        <v>37.32721182683387</v>
+        <v>23.75034751340508</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -613,28 +613,28 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>2221</v>
+        <v>3952</v>
       </c>
       <c r="E6">
-        <v>0.6999799233334656</v>
+        <v>0.9030178572148434</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H6">
-        <v>104.8346687446785</v>
+        <v>103.4876877596503</v>
       </c>
       <c r="I6">
-        <v>36.10402474584229</v>
+        <v>23.66491782001678</v>
       </c>
       <c r="J6">
-        <v>103.9317712284117</v>
+        <v>103.4745367246819</v>
       </c>
       <c r="K6">
-        <v>36.48784434930494</v>
+        <v>23.64730815151745</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -644,28 +644,28 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>2256</v>
+        <v>3617</v>
       </c>
       <c r="E7">
-        <v>0.7031492440904188</v>
+        <v>0.619354709124653</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G7">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H7">
-        <v>104.8346687446785</v>
+        <v>103.4876877596503</v>
       </c>
       <c r="I7">
-        <v>36.10402474584229</v>
+        <v>23.66491782001678</v>
       </c>
       <c r="J7">
-        <v>107.8415988101581</v>
+        <v>106.0824955615326</v>
       </c>
       <c r="K7">
-        <v>35.77117631108801</v>
+        <v>21.75549566159284</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -677,28 +677,28 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>1546</v>
+        <v>5137</v>
       </c>
       <c r="E8">
-        <v>0.1707472251217663</v>
+        <v>0.2640597967962348</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>71.23182892594428</v>
+        <v>89.54544257392567</v>
       </c>
       <c r="I8">
-        <v>46.65502164021548</v>
+        <v>30.23326037103341</v>
       </c>
       <c r="J8">
-        <v>75.26648127026114</v>
+        <v>84.46732488561877</v>
       </c>
       <c r="K8">
-        <v>50.27210490014268</v>
+        <v>34.79201820992257</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -708,28 +708,28 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>722</v>
+        <v>4418</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H9">
-        <v>71.23182892594428</v>
+        <v>89.54544257392567</v>
       </c>
       <c r="I9">
-        <v>46.65502164021548</v>
+        <v>30.23326037103341</v>
       </c>
       <c r="J9">
-        <v>71.23182892594428</v>
+        <v>89.54544257392567</v>
       </c>
       <c r="K9">
-        <v>46.65502164021548</v>
+        <v>30.23326037103341</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -739,28 +739,28 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>720</v>
+        <v>4522</v>
       </c>
       <c r="E10">
-        <v>0.9875670150516622</v>
+        <v>0.5019194145342818</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H10">
-        <v>71.23182892594428</v>
+        <v>89.54544257392567</v>
       </c>
       <c r="I10">
-        <v>46.65502164021548</v>
+        <v>30.23326037103341</v>
       </c>
       <c r="J10">
-        <v>71.33537042547421</v>
+        <v>87.32100744541012</v>
       </c>
       <c r="K10">
-        <v>41.54962550266636</v>
+        <v>28.17244515160275</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,28 +770,28 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>595</v>
+        <v>4232</v>
       </c>
       <c r="E11">
-        <v>0.2546201234972247</v>
+        <v>0.8031683345286531</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H11">
-        <v>71.23182892594428</v>
+        <v>89.54544257392567</v>
       </c>
       <c r="I11">
-        <v>46.65502164021548</v>
+        <v>30.23326037103341</v>
       </c>
       <c r="J11">
-        <v>78.55047102465387</v>
+        <v>90.48521422373116</v>
       </c>
       <c r="K11">
-        <v>47.72805163954023</v>
+        <v>33.24367587756176</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -801,28 +801,28 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>798</v>
+        <v>4853</v>
       </c>
       <c r="E12">
-        <v>0.8610190345227454</v>
+        <v>0.3689483369317097</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G12">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H12">
-        <v>71.23182892594428</v>
+        <v>89.54544257392567</v>
       </c>
       <c r="I12">
-        <v>46.65502164021548</v>
+        <v>30.23326037103341</v>
       </c>
       <c r="J12">
-        <v>65.26463136116571</v>
+        <v>86.19719544859913</v>
       </c>
       <c r="K12">
-        <v>33.50990390486508</v>
+        <v>31.91064853137396</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,28 +832,28 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>616</v>
+        <v>4227</v>
       </c>
       <c r="E13">
-        <v>0.5922775566647573</v>
+        <v>0.4528433670290589</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H13">
-        <v>71.23182892594428</v>
+        <v>89.54544257392567</v>
       </c>
       <c r="I13">
-        <v>46.65502164021548</v>
+        <v>30.23326037103341</v>
       </c>
       <c r="J13">
-        <v>84.29749839988935</v>
+        <v>93.07419689466359</v>
       </c>
       <c r="K13">
-        <v>48.49859684501484</v>
+        <v>31.45205553353516</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,28 +867,28 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>5348</v>
+        <v>6473</v>
       </c>
       <c r="E14">
-        <v>4.926837430862762E-09</v>
+        <v>9.181182729012103E-10</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14">
-        <v>0.852016765149149</v>
+        <v>0.8437352197181709</v>
       </c>
       <c r="I14">
-        <v>0.02822347682469342</v>
+        <v>0.04206960885339991</v>
       </c>
       <c r="J14">
-        <v>0.8114425271236213</v>
+        <v>0.804213635974544</v>
       </c>
       <c r="K14">
-        <v>0.03446705782749521</v>
+        <v>0.04584592733376234</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -898,28 +898,28 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>2450</v>
+        <v>3612.5</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H15">
-        <v>0.852016765149149</v>
+        <v>0.8437352197181709</v>
       </c>
       <c r="I15">
-        <v>0.02822347682469342</v>
+        <v>0.04206960885339991</v>
       </c>
       <c r="J15">
-        <v>0.852016765149149</v>
+        <v>0.8437352197181709</v>
       </c>
       <c r="K15">
-        <v>0.02822347682469342</v>
+        <v>0.04206960885339991</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -929,28 +929,28 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>2142</v>
+        <v>3842</v>
       </c>
       <c r="E16">
-        <v>0.6640709537406473</v>
+        <v>0.6591965408559263</v>
       </c>
       <c r="F16">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G16">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H16">
-        <v>0.852016765149149</v>
+        <v>0.8437352197181709</v>
       </c>
       <c r="I16">
-        <v>0.02822347682469342</v>
+        <v>0.04206960885339991</v>
       </c>
       <c r="J16">
-        <v>0.8512823000652064</v>
+        <v>0.8367971576246304</v>
       </c>
       <c r="K16">
-        <v>0.03020446601637335</v>
+        <v>0.05675607495318526</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -960,28 +960,28 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>2169</v>
+        <v>4129</v>
       </c>
       <c r="E17">
-        <v>0.8729021711199432</v>
+        <v>0.1435195845015218</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G17">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H17">
-        <v>0.852016765149149</v>
+        <v>0.8437352197181709</v>
       </c>
       <c r="I17">
-        <v>0.02822347682469342</v>
+        <v>0.04206960885339991</v>
       </c>
       <c r="J17">
-        <v>0.8478372558533059</v>
+        <v>0.8271452351935551</v>
       </c>
       <c r="K17">
-        <v>0.02829246327606553</v>
+        <v>0.06021258979554391</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -991,28 +991,28 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>2403</v>
+        <v>4385</v>
       </c>
       <c r="E18">
-        <v>0.6871215474336347</v>
+        <v>0.1635593233559253</v>
       </c>
       <c r="F18">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G18">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H18">
-        <v>0.852016765149149</v>
+        <v>0.8437352197181709</v>
       </c>
       <c r="I18">
-        <v>0.02822347682469342</v>
+        <v>0.04206960885339991</v>
       </c>
       <c r="J18">
-        <v>0.848392590642626</v>
+        <v>0.8304853490270662</v>
       </c>
       <c r="K18">
-        <v>0.02966938627344716</v>
+        <v>0.06191713512241818</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1022,28 +1022,28 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>2275</v>
+        <v>3721</v>
       </c>
       <c r="E19">
-        <v>0.7647412561094877</v>
+        <v>0.8542860337112581</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G19">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H19">
-        <v>0.852016765149149</v>
+        <v>0.8437352197181709</v>
       </c>
       <c r="I19">
-        <v>0.02822347682469342</v>
+        <v>0.04206960885339991</v>
       </c>
       <c r="J19">
-        <v>0.8540162489015967</v>
+        <v>0.8413291333404348</v>
       </c>
       <c r="K19">
-        <v>0.02748166446304729</v>
+        <v>0.05070748262657089</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1055,28 +1055,28 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>2480</v>
+        <v>4571</v>
       </c>
       <c r="E20">
-        <v>0.001213424017641705</v>
+        <v>0.7423179026028482</v>
       </c>
       <c r="F20">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G20">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>0.95028169613448</v>
+        <v>0.9313048704529034</v>
       </c>
       <c r="I20">
-        <v>0.009162544830117416</v>
+        <v>0.02561180786673143</v>
       </c>
       <c r="J20">
-        <v>0.9455331561539277</v>
+        <v>0.9310421783472154</v>
       </c>
       <c r="K20">
-        <v>0.01480325683745226</v>
+        <v>0.0287269697758714</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1086,28 +1086,28 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>722</v>
+        <v>4418</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G21">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H21">
-        <v>0.95028169613448</v>
+        <v>0.9313048704529034</v>
       </c>
       <c r="I21">
-        <v>0.009162544830117416</v>
+        <v>0.02561180786673143</v>
       </c>
       <c r="J21">
-        <v>0.95028169613448</v>
+        <v>0.9313048704529034</v>
       </c>
       <c r="K21">
-        <v>0.009162544830117416</v>
+        <v>0.02561180786673143</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1117,28 +1117,28 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>698</v>
+        <v>4186</v>
       </c>
       <c r="E22">
-        <v>0.8071264926578201</v>
+        <v>0.8037158224738259</v>
       </c>
       <c r="F22">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G22">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>0.95028169613448</v>
+        <v>0.9313048704529034</v>
       </c>
       <c r="I22">
-        <v>0.009162544830117416</v>
+        <v>0.02561180786673143</v>
       </c>
       <c r="J22">
-        <v>0.9535579064740041</v>
+        <v>0.9317134973176281</v>
       </c>
       <c r="K22">
-        <v>0.0103587765861713</v>
+        <v>0.02658260344444698</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1148,28 +1148,28 @@
         <v>19</v>
       </c>
       <c r="D23">
-        <v>788</v>
+        <v>4625</v>
       </c>
       <c r="E23">
-        <v>0.3705393830356037</v>
+        <v>0.4130311095768686</v>
       </c>
       <c r="F23">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H23">
-        <v>0.95028169613448</v>
+        <v>0.9313048704529034</v>
       </c>
       <c r="I23">
-        <v>0.009162544830117416</v>
+        <v>0.02561180786673143</v>
       </c>
       <c r="J23">
-        <v>0.9491042823385165</v>
+        <v>0.9286546331912847</v>
       </c>
       <c r="K23">
-        <v>0.00936100720551733</v>
+        <v>0.02538794584912968</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1179,28 +1179,28 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>1006</v>
+        <v>5517</v>
       </c>
       <c r="E24">
-        <v>0.07444090408452406</v>
+        <v>0.008037776818845868</v>
       </c>
       <c r="F24">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G24">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H24">
-        <v>0.95028169613448</v>
+        <v>0.9313048704529034</v>
       </c>
       <c r="I24">
-        <v>0.009162544830117416</v>
+        <v>0.02561180786673143</v>
       </c>
       <c r="J24">
-        <v>0.9485627725334154</v>
+        <v>0.9182471101222179</v>
       </c>
       <c r="K24">
-        <v>0.011336591662255</v>
+        <v>0.03345439468216875</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>759</v>
+        <v>5400</v>
       </c>
       <c r="E25">
-        <v>0.3018707932697428</v>
+        <v>0.01919294867275118</v>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G25">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H25">
-        <v>0.95028169613448</v>
+        <v>0.9313048704529034</v>
       </c>
       <c r="I25">
-        <v>0.009162544830117416</v>
+        <v>0.02561180786673143</v>
       </c>
       <c r="J25">
-        <v>0.9485267323251402</v>
+        <v>0.922717659945798</v>
       </c>
       <c r="K25">
-        <v>0.01049683952399256</v>
+        <v>0.02791933946448031</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1245,28 +1245,28 @@
         <v>16</v>
       </c>
       <c r="D26">
-        <v>1553</v>
+        <v>1983</v>
       </c>
       <c r="E26">
-        <v>7.134247604073675E-10</v>
+        <v>4.258333785513541E-10</v>
       </c>
       <c r="F26">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>6.650022590170658</v>
+        <v>5.511478817488326</v>
       </c>
       <c r="I26">
-        <v>3.194718592949019</v>
+        <v>3.673042353690942</v>
       </c>
       <c r="J26">
-        <v>8.989737737531316</v>
+        <v>8.756653166145611</v>
       </c>
       <c r="K26">
-        <v>3.199364761436214</v>
+        <v>4.694137365535475</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1276,28 +1276,28 @@
         <v>17</v>
       </c>
       <c r="D27">
-        <v>2450</v>
+        <v>3612.5</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H27">
-        <v>6.650022590170658</v>
+        <v>5.511478817488326</v>
       </c>
       <c r="I27">
-        <v>3.194718592949019</v>
+        <v>3.673042353690942</v>
       </c>
       <c r="J27">
-        <v>6.650022590170658</v>
+        <v>5.511478817488326</v>
       </c>
       <c r="K27">
-        <v>3.194718592949019</v>
+        <v>3.673042353690942</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1307,28 +1307,28 @@
         <v>18</v>
       </c>
       <c r="D28">
-        <v>1872</v>
+        <v>3485</v>
       </c>
       <c r="E28">
-        <v>0.1016356710436871</v>
+        <v>0.5161551711946482</v>
       </c>
       <c r="F28">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G28">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H28">
-        <v>6.650022590170658</v>
+        <v>5.511478817488326</v>
       </c>
       <c r="I28">
-        <v>3.194718592949019</v>
+        <v>3.673042353690942</v>
       </c>
       <c r="J28">
-        <v>6.946752991494641</v>
+        <v>5.552359970762158</v>
       </c>
       <c r="K28">
-        <v>3.279394404835712</v>
+        <v>3.396121613795744</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1338,28 +1338,28 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <v>2008</v>
+        <v>3806</v>
       </c>
       <c r="E29">
-        <v>0.3758948038137553</v>
+        <v>0.6419688279727049</v>
       </c>
       <c r="F29">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H29">
-        <v>6.650022590170658</v>
+        <v>5.511478817488326</v>
       </c>
       <c r="I29">
-        <v>3.194718592949019</v>
+        <v>3.673042353690942</v>
       </c>
       <c r="J29">
-        <v>6.75732342704532</v>
+        <v>4.987526949697973</v>
       </c>
       <c r="K29">
-        <v>3.458212138704881</v>
+        <v>2.930098711634761</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1369,28 +1369,28 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <v>1726</v>
+        <v>3330</v>
       </c>
       <c r="E30">
-        <v>0.01106366777062425</v>
+        <v>0.0888500697321359</v>
       </c>
       <c r="F30">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G30">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H30">
-        <v>6.650022590170658</v>
+        <v>5.511478817488326</v>
       </c>
       <c r="I30">
-        <v>3.194718592949019</v>
+        <v>3.673042353690942</v>
       </c>
       <c r="J30">
-        <v>7.606748950523051</v>
+        <v>6.506489819259713</v>
       </c>
       <c r="K30">
-        <v>3.423202664623228</v>
+        <v>4.735900126890608</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1400,28 +1400,28 @@
         <v>21</v>
       </c>
       <c r="D31">
-        <v>2251</v>
+        <v>3693</v>
       </c>
       <c r="E31">
-        <v>0.6872408052970149</v>
+        <v>0.7887362017887956</v>
       </c>
       <c r="F31">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G31">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <v>6.650022590170658</v>
+        <v>5.511478817488326</v>
       </c>
       <c r="I31">
-        <v>3.194718592949019</v>
+        <v>3.673042353690942</v>
       </c>
       <c r="J31">
-        <v>6.56029674757777</v>
+        <v>5.387504042070951</v>
       </c>
       <c r="K31">
-        <v>3.292722744591933</v>
+        <v>3.309632317857161</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1433,28 +1433,28 @@
         <v>16</v>
       </c>
       <c r="D32">
-        <v>1153</v>
+        <v>2453</v>
       </c>
       <c r="E32">
-        <v>0.000933795494736332</v>
+        <v>9.031192479738353E-09</v>
       </c>
       <c r="F32">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G32">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H32">
-        <v>17.24312486001764</v>
+        <v>12.09859229200911</v>
       </c>
       <c r="I32">
-        <v>7.255817652633691</v>
+        <v>6.582444591173229</v>
       </c>
       <c r="J32">
-        <v>24.49354214376756</v>
+        <v>19.79126229992506</v>
       </c>
       <c r="K32">
-        <v>9.816650105621822</v>
+        <v>10.302194479201</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1464,28 +1464,28 @@
         <v>17</v>
       </c>
       <c r="D33">
-        <v>722</v>
+        <v>4418</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G33">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H33">
-        <v>17.24312486001764</v>
+        <v>12.09859229200911</v>
       </c>
       <c r="I33">
-        <v>7.255817652633691</v>
+        <v>6.582444591173229</v>
       </c>
       <c r="J33">
-        <v>17.24312486001764</v>
+        <v>12.09859229200911</v>
       </c>
       <c r="K33">
-        <v>7.255817652633691</v>
+        <v>6.582444591173229</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1495,28 +1495,28 @@
         <v>18</v>
       </c>
       <c r="D34">
-        <v>724</v>
+        <v>4067</v>
       </c>
       <c r="E34">
-        <v>0.9875670150516622</v>
+        <v>0.5650533243537142</v>
       </c>
       <c r="F34">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G34">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H34">
-        <v>17.24312486001764</v>
+        <v>12.09859229200911</v>
       </c>
       <c r="I34">
-        <v>7.255817652633691</v>
+        <v>6.582444591173229</v>
       </c>
       <c r="J34">
-        <v>16.79974133760781</v>
+        <v>12.31510810328047</v>
       </c>
       <c r="K34">
-        <v>5.526819403008397</v>
+        <v>5.984553214117979</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1526,28 +1526,28 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <v>712</v>
+        <v>4441</v>
       </c>
       <c r="E35">
-        <v>0.9282266560823891</v>
+        <v>0.7509783735227095</v>
       </c>
       <c r="F35">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G35">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H35">
-        <v>17.24312486001764</v>
+        <v>12.09859229200911</v>
       </c>
       <c r="I35">
-        <v>7.255817652633691</v>
+        <v>6.582444591173229</v>
       </c>
       <c r="J35">
-        <v>17.0454893584657</v>
+        <v>11.53698647247906</v>
       </c>
       <c r="K35">
-        <v>6.116373979119546</v>
+        <v>5.937561768670683</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1557,28 +1557,28 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>725</v>
+        <v>4440</v>
       </c>
       <c r="E36">
-        <v>0.3865329473102821</v>
+        <v>0.8503590969564694</v>
       </c>
       <c r="F36">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G36">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H36">
-        <v>17.24312486001764</v>
+        <v>12.09859229200911</v>
       </c>
       <c r="I36">
-        <v>7.255817652633691</v>
+        <v>6.582444591173229</v>
       </c>
       <c r="J36">
-        <v>19.34447474180815</v>
+        <v>12.28600186783672</v>
       </c>
       <c r="K36">
-        <v>8.526583189616511</v>
+        <v>6.913266163137267</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1588,28 +1588,28 @@
         <v>21</v>
       </c>
       <c r="D37">
-        <v>690</v>
+        <v>5010</v>
       </c>
       <c r="E37">
-        <v>0.7867527346631925</v>
+        <v>0.1892820239555997</v>
       </c>
       <c r="F37">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G37">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H37">
-        <v>17.24312486001764</v>
+        <v>12.09859229200911</v>
       </c>
       <c r="I37">
-        <v>7.255817652633691</v>
+        <v>6.582444591173229</v>
       </c>
       <c r="J37">
-        <v>15.51314122227493</v>
+        <v>10.62296962314138</v>
       </c>
       <c r="K37">
-        <v>4.746067447254465</v>
+        <v>5.06951423330425</v>
       </c>
     </row>
   </sheetData>
